--- a/NEW HR/PAZ, JOSUE.xlsx
+++ b/NEW HR/PAZ, JOSUE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -638,14 +638,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -655,9 +658,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1547,10 +1547,10 @@
   </sheetPr>
   <dimension ref="A2:K163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A60" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,14 +1580,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1598,16 +1598,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>39860</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1620,16 +1620,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1655,18 +1655,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1713,7 +1713,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1723,7 +1723,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3112,15 +3112,19 @@
       <c r="K77" s="21"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
+      <c r="A78" s="41">
+        <v>44986</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4489,17 +4493,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4534,10 +4538,10 @@
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A9" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A18" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4567,14 +4571,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4585,16 +4589,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>39860</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -4607,16 +4611,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4642,18 +4646,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4710,7 +4714,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -5138,8 +5142,12 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="41">
+        <v>44958</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="C29" s="14"/>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
@@ -5148,10 +5156,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="39">
+        <v>1</v>
+      </c>
       <c r="I29" s="9"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="21"/>
+      <c r="K29" s="40">
+        <v>44985</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>

--- a/NEW HR/PAZ, JOSUE.xlsx
+++ b/NEW HR/PAZ, JOSUE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -638,17 +638,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -658,6 +655,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1580,14 +1580,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1598,16 +1598,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>39860</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1620,16 +1620,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1655,18 +1655,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4493,17 +4493,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4541,7 +4541,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A18" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4571,14 +4571,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4589,16 +4589,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>39860</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -4611,16 +4611,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4646,18 +4646,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4714,7 +4714,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -5166,8 +5166,12 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="41">
+        <v>45017</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" s="14"/>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
@@ -5176,10 +5180,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H30" s="39"/>
+      <c r="H30" s="39">
+        <v>1</v>
+      </c>
       <c r="I30" s="9"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="21"/>
+      <c r="K30" s="40">
+        <v>45036</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>

--- a/NEW HR/PAZ, JOSUE.xlsx
+++ b/NEW HR/PAZ, JOSUE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -638,14 +638,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -655,9 +658,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1548,9 +1548,9 @@
   <dimension ref="A2:K163"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A60" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,14 +1580,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1598,16 +1598,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>39860</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1620,16 +1620,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1655,18 +1655,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1713,7 +1713,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1723,7 +1723,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3132,15 +3132,19 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
+      <c r="A79" s="41">
+        <v>45017</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -3148,15 +3152,19 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
+      <c r="A80" s="41">
+        <v>45047</v>
+      </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -3164,15 +3172,19 @@
       <c r="K80" s="21"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
+      <c r="A81" s="41">
+        <v>45078</v>
+      </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -3180,15 +3192,19 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
+      <c r="A82" s="41">
+        <v>45108</v>
+      </c>
       <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -3196,7 +3212,9 @@
       <c r="K82" s="21"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
+      <c r="A83" s="41">
+        <v>45139</v>
+      </c>
       <c r="B83" s="21"/>
       <c r="C83" s="14"/>
       <c r="D83" s="39"/>
@@ -4493,17 +4511,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4541,7 +4559,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A18" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4571,14 +4589,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4589,16 +4607,16 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>39860</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -4611,16 +4629,16 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4646,18 +4664,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4714,7 +4732,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -5190,8 +5208,12 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="41">
+        <v>45153</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="C31" s="14"/>
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
@@ -5200,10 +5222,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="39">
+        <v>1</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="12"/>
-      <c r="K31" s="21"/>
+      <c r="K31" s="40">
+        <v>45146</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
